--- a/biology/Botanique/Bouquet_garni/Bouquet_garni.xlsx
+++ b/biology/Botanique/Bouquet_garni/Bouquet_garni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un bouquet garni est un assortiment de plantes aromatiques traditionnelles (fraîches, ou séchées) de la cuisine française[1],[2].
+Un bouquet garni est un assortiment de plantes aromatiques traditionnelles (fraîches, ou séchées) de la cuisine française,.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bouquet garni est un ensemble de plantes aromatiques de jardin potager[3], généralement ficelées harmonieusement en petit fagot, puis ajouté à la cuisson pour parfumer de nombreux plats, sauces, ou court-bouillons traditionnels le cuisine française, en particulier des soupes, pot-au-feu, poule au pot, potée, bœuf bourguignon, coq au vin, blanquette de veau, navarin d'agneau, lapin chasseur, ragoût, osso buco, carbonade flamande, moules marinières, bouillabaisse[4],[5]... 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bouquet garni est un ensemble de plantes aromatiques de jardin potager, généralement ficelées harmonieusement en petit fagot, puis ajouté à la cuisson pour parfumer de nombreux plats, sauces, ou court-bouillons traditionnels le cuisine française, en particulier des soupes, pot-au-feu, poule au pot, potée, bœuf bourguignon, coq au vin, blanquette de veau, navarin d'agneau, lapin chasseur, ragoût, osso buco, carbonade flamande, moules marinières, bouillabaisse,... 
 			Marché de Provence du Cours Saleya de Nice
 			Bouquet garni séché
 			Thym, laurier, sauge
-Cet élément emblématique de l'histoire de la cuisine française est décrit dans le livre Le Cuisinier François, de 1651, du chef cuisinier bourguignon François Pierre de La Varenne[6], considéré comme l'auteur du premier véritable ouvrage culinaire marquant le passage de la cuisine médiévale du Moyen Âge, à la grande cuisine française moderne.
+Cet élément emblématique de l'histoire de la cuisine française est décrit dans le livre Le Cuisinier François, de 1651, du chef cuisinier bourguignon François Pierre de La Varenne, considéré comme l'auteur du premier véritable ouvrage culinaire marquant le passage de la cuisine médiévale du Moyen Âge, à la grande cuisine française moderne.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un bouquet garni de base se compose de :
 thym ;
@@ -589,9 +605,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme son nom l'indique, les ingrédients forment un bouquet lié avec une ficelle alimentaire (comme la ficelle de boucher) d'une vingtaine de centimètres qui dépasse du récipient, pour pouvoir le retirer facilement en fin de cuisson[7],[8],[9],[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, les ingrédients forment un bouquet lié avec une ficelle alimentaire (comme la ficelle de boucher) d'une vingtaine de centimètres qui dépasse du récipient, pour pouvoir le retirer facilement en fin de cuisson.
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aromate
 Persillade
